--- a/landCoverTemplate.xlsx
+++ b/landCoverTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqpscar1_uq_edu_au/Documents/asm/ODK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2446" documentId="11_D78E0D02123FAFB7EF8F93892FCCBBBD22D96E27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{653A64E3-C68F-42FD-A32B-17CBDEFC7A1E}"/>
+  <xr:revisionPtr revIDLastSave="2568" documentId="11_D78E0D02123FAFB7EF8F93892FCCBBBD22D96E27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622E0841-B363-442C-B907-3C0DBA079537}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="544">
   <si>
     <t>type</t>
   </si>
@@ -379,36 +379,21 @@
     <t>site-photo</t>
   </si>
   <si>
-    <t>Site photo</t>
-  </si>
-  <si>
     <t>annotate</t>
   </si>
   <si>
     <t>site-description</t>
   </si>
   <si>
-    <t>Site description</t>
-  </si>
-  <si>
-    <t>Short description of the site</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
     <t>site-location</t>
   </si>
   <si>
-    <t>Site location</t>
-  </si>
-  <si>
     <t>deposit</t>
   </si>
   <si>
-    <t>Identify the location of the site</t>
-  </si>
-  <si>
     <t>What is the status of the site</t>
   </si>
   <si>
@@ -460,15 +445,6 @@
     <t>select_multiple accessibility</t>
   </si>
   <si>
-    <t>Select how the site can be accessed. Please select all that apply</t>
-  </si>
-  <si>
-    <t>Site connecting road</t>
-  </si>
-  <si>
-    <t>Site road surfaces</t>
-  </si>
-  <si>
     <t>grassland</t>
   </si>
   <si>
@@ -517,9 +493,6 @@
     <t>mine-accessibility</t>
   </si>
   <si>
-    <t>site-road</t>
-  </si>
-  <si>
     <t>mine-trash</t>
   </si>
   <si>
@@ -532,9 +505,6 @@
     <t>mine-deposit</t>
   </si>
   <si>
-    <t>Mineral deposit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select the type of mineral deposit.  Please select all that apply </t>
   </si>
   <si>
@@ -547,18 +517,9 @@
     <t>What is the other deposit type?</t>
   </si>
   <si>
-    <t>Site Name</t>
-  </si>
-  <si>
-    <t>Identify the site with a name</t>
-  </si>
-  <si>
     <t>site-name</t>
   </si>
   <si>
-    <t>site-roadsurface</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -643,21 +604,9 @@
     <t>${mine-pits} &gt; 0</t>
   </si>
   <si>
-    <t>Width of a pit</t>
-  </si>
-  <si>
-    <t>Length of a pit</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
-    <t>Width of shelter</t>
-  </si>
-  <si>
-    <t>Length of the shelter</t>
-  </si>
-  <si>
     <t>Average length of the pit shelter in meters</t>
   </si>
   <si>
@@ -739,1141 +688,1177 @@
     <t>mine-pitdepth</t>
   </si>
   <si>
-    <t>Depth of a pit</t>
+    <t>site-author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columns-pack	</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>mine-pitvolume</t>
+  </si>
+  <si>
+    <t>${mine-pitlength} * ${mine-pitwidth}* ${mine-pitdepth}</t>
+  </si>
+  <si>
+    <t>roadsurface-other</t>
+  </si>
+  <si>
+    <t>What is the other type of road surface?</t>
+  </si>
+  <si>
+    <t>accessibility-other</t>
+  </si>
+  <si>
+    <t>Other mine access type</t>
+  </si>
+  <si>
+    <t>What is the other type of mine access?</t>
+  </si>
+  <si>
+    <t>Other site equipment type</t>
+  </si>
+  <si>
+    <t>What is the other type of site equipment?</t>
+  </si>
+  <si>
+    <t>What is the other type of machinery?</t>
+  </si>
+  <si>
+    <t>Calculated pit volume: ${mine-pitvolume} m3</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>charcol</t>
+  </si>
+  <si>
+    <t>Charcol Production</t>
+  </si>
+  <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>flood</t>
+  </si>
+  <si>
+    <t>select_multiple climate</t>
+  </si>
+  <si>
+    <t>Select any recent climate impacts on the site.</t>
+  </si>
+  <si>
+    <t>unpaved</t>
+  </si>
+  <si>
+    <t>Unpaved but compacted</t>
+  </si>
+  <si>
+    <t>Dirt (Unformed)</t>
+  </si>
+  <si>
+    <t>selected(${mine-accessibility} , 'other')</t>
+  </si>
+  <si>
+    <t>processing-types</t>
+  </si>
+  <si>
+    <t>Select all the processing activities on the site.</t>
+  </si>
+  <si>
+    <t>processing_type</t>
+  </si>
+  <si>
+    <t>tailings</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>crushing</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>Tailings Present</t>
+  </si>
+  <si>
+    <t>Crushing Equipment</t>
+  </si>
+  <si>
+    <t>Physical Processing Equipment</t>
+  </si>
+  <si>
+    <t>Chemical Processing Equipment</t>
+  </si>
+  <si>
+    <t>selected(${processing-types}, 'tailings')</t>
+  </si>
+  <si>
+    <t>select_multiple processing_type</t>
+  </si>
+  <si>
+    <t>Average length of the tailings pond in meters</t>
+  </si>
+  <si>
+    <t>Average width of the tailings pond in meters</t>
+  </si>
+  <si>
+    <t>tailings_colour</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Light Grey</t>
+  </si>
+  <si>
+    <t>Dark Grey</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>What is the other colour of the tailings pile?</t>
+  </si>
+  <si>
+    <t>Select the colour of tailings ponds</t>
+  </si>
+  <si>
+    <t>processing-tailingspilephoto</t>
+  </si>
+  <si>
+    <t>processing-tailingspilenumber</t>
+  </si>
+  <si>
+    <t>processing-tailingspilelength</t>
+  </si>
+  <si>
+    <t>processing-tailingspilecolour</t>
+  </si>
+  <si>
+    <t>processing-tailingspileothercolor</t>
+  </si>
+  <si>
+    <t>processing-tailingspondphoto</t>
+  </si>
+  <si>
+    <t>processing-tailingspondnumber</t>
+  </si>
+  <si>
+    <t>processing-tailingspondlength</t>
+  </si>
+  <si>
+    <t>processing-tailingspondcolour</t>
+  </si>
+  <si>
+    <t>processing-tailingspondothercolor</t>
+  </si>
+  <si>
+    <t>selected(${processing-tailingspondcolour}, 'other')</t>
+  </si>
+  <si>
+    <t>selected(${processing-tailingspilecolour}, 'other')</t>
+  </si>
+  <si>
+    <t>${processing-tailingspondnumber} &gt; 0</t>
+  </si>
+  <si>
+    <t>${processing-tailingspilenumber} &gt; 0</t>
+  </si>
+  <si>
+    <t>Photo of the tailings pile(s).  Annotate the photo if required to show scale.</t>
+  </si>
+  <si>
+    <t>How many tailings pile are on site</t>
+  </si>
+  <si>
+    <t>Select the colour of tailings pile</t>
+  </si>
+  <si>
+    <t>What is the other colour of the tailings pond?</t>
+  </si>
+  <si>
+    <t>processing-tailingspondwidth</t>
+  </si>
+  <si>
+    <t>processing-tailingspilewidth</t>
+  </si>
+  <si>
+    <t>Recent flooding</t>
+  </si>
+  <si>
+    <t>Drought</t>
+  </si>
+  <si>
+    <t>Recent fire</t>
+  </si>
+  <si>
+    <t>chemical_processing</t>
+  </si>
+  <si>
+    <t>Mercury amalgamation</t>
+  </si>
+  <si>
+    <t>Cyanidisation (leaching) - acid</t>
+  </si>
+  <si>
+    <t>Direct smelting (borax, potassium nitrate)</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>cyanide</t>
+  </si>
+  <si>
+    <t>Average length of the tailings pile(s) in meters</t>
+  </si>
+  <si>
+    <t>Average width of the tailings pile(s) in meters</t>
+  </si>
+  <si>
+    <t>${mine-pitdepth} &gt; 0</t>
+  </si>
+  <si>
+    <t>processing-tailingspilearea</t>
+  </si>
+  <si>
+    <t>processing-tailingspileareanote</t>
+  </si>
+  <si>
+    <t>${processing-tailingspilewidth} &gt; 0</t>
+  </si>
+  <si>
+    <t>Calculated tailings pile area: ${processing-tailingspilearea} m2</t>
+  </si>
+  <si>
+    <t>${processing-tailingspilelength} * ${processing-tailingspilewidth}</t>
+  </si>
+  <si>
+    <t>processing-tailingspondarea</t>
+  </si>
+  <si>
+    <t>processing-tailingspondareanote</t>
+  </si>
+  <si>
+    <t>Calculated tailings pond area: ${processing-tailingspondarea} m2</t>
+  </si>
+  <si>
+    <t>${processing-tailingspondwidth} &gt; 0</t>
+  </si>
+  <si>
+    <t>${processing-tailingspondlength} * ${processing-tailingspondwidth}</t>
+  </si>
+  <si>
+    <t>Other tailings pile colour</t>
+  </si>
+  <si>
+    <t>Other tailings pond colour</t>
+  </si>
+  <si>
+    <t>count-selected(${site-lclu}) &gt; 0</t>
+  </si>
+  <si>
+    <t>site-lcluother</t>
+  </si>
+  <si>
+    <t>Other site land use</t>
+  </si>
+  <si>
+    <t>What is the other type of land cover or land use?</t>
+  </si>
+  <si>
+    <t>selected(${site-lclu} , 'other')</t>
+  </si>
+  <si>
+    <t>management_stage</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>Baled</t>
+  </si>
+  <si>
+    <t>Burnt</t>
+  </si>
+  <si>
+    <t>Cultivated</t>
+  </si>
+  <si>
+    <t>Grazed</t>
+  </si>
+  <si>
+    <t>Mulched</t>
+  </si>
+  <si>
+    <t>select_multiple commodity</t>
+  </si>
+  <si>
+    <t>crop-type</t>
+  </si>
+  <si>
+    <t>crop-othertype</t>
+  </si>
+  <si>
+    <t>Other crop type</t>
+  </si>
+  <si>
+    <t>What is the other type of crop(s)?</t>
+  </si>
+  <si>
+    <t>selected(${crop-type} , 'other')</t>
+  </si>
+  <si>
+    <t>Crop name</t>
+  </si>
+  <si>
+    <t>What crops are on the site?</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Fresh vegetables</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Oil palm fruit</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Plantains</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Sugar beet</t>
+  </si>
+  <si>
+    <t>Sugar cane</t>
+  </si>
+  <si>
+    <t>Sweet potatoes</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Yams</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>abandoned</t>
+  </si>
+  <si>
+    <t>baled</t>
+  </si>
+  <si>
+    <t>burnt</t>
+  </si>
+  <si>
+    <t>cultivated</t>
+  </si>
+  <si>
+    <t>grazed</t>
+  </si>
+  <si>
+    <t>mulched</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>cassava</t>
+  </si>
+  <si>
+    <t>groundnuts</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>millet</t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>plantains</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>tomatoes</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>yams</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>oilpalm</t>
+  </si>
+  <si>
+    <t>onions</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>sugarbeet</t>
+  </si>
+  <si>
+    <t>sugarcane</t>
+  </si>
+  <si>
+    <t>sweetpotatoes</t>
+  </si>
+  <si>
+    <t>(selected(${site-lclu}, 'forest') or selected(${site-lclu}, 'woodland')) or selected(${site-lclu}, 'shrubland')</t>
+  </si>
+  <si>
+    <t>shrubcrop</t>
+  </si>
+  <si>
+    <t>treecrop</t>
+  </si>
+  <si>
+    <t>select_multiple veg_names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayinda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprokuma/Onzabili </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moabi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rattan </t>
+  </si>
+  <si>
+    <t>Aiele/African canarium/Incense</t>
+  </si>
+  <si>
+    <t>Star apple</t>
+  </si>
+  <si>
+    <t>Kola nut</t>
+  </si>
+  <si>
+    <t>Monkey kola</t>
+  </si>
+  <si>
+    <t>African plum/Safoutier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapele/Tiama/Utile/Sipo </t>
+  </si>
+  <si>
+    <t>Bitter kola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ero </t>
+  </si>
+  <si>
+    <t>Bush mango/Andok</t>
+  </si>
+  <si>
+    <t>African mahogany</t>
+  </si>
+  <si>
+    <t>Bibolo/African walnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iroko/Mvule/Odum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opepe/Kusia/Bilinga </t>
+  </si>
+  <si>
+    <t>Oil bean</t>
+  </si>
+  <si>
+    <t>Raphia palm</t>
+  </si>
+  <si>
+    <t>Groundnut tree/Nyangsang/Essessang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framiré/Idigbo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraké/Afara/Limba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prekese/Akpa </t>
+  </si>
+  <si>
+    <t>African breadfruit/Etoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayous/Obeche/Wawa </t>
+  </si>
+  <si>
+    <t>Bitter leaf</t>
+  </si>
+  <si>
+    <t>Spice tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayinda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moabi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rattan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anaku </t>
+  </si>
+  <si>
+    <t>aprokuma</t>
+  </si>
+  <si>
+    <t>aiele</t>
+  </si>
+  <si>
+    <t>starapple</t>
+  </si>
+  <si>
+    <t>kolanut</t>
+  </si>
+  <si>
+    <t>monkeykola</t>
+  </si>
+  <si>
+    <t>coulanut</t>
+  </si>
+  <si>
+    <t>Coula nut/African Walnut</t>
+  </si>
+  <si>
+    <t>bitterkola</t>
+  </si>
+  <si>
+    <t>bushmang</t>
+  </si>
+  <si>
+    <t>africanmahogany</t>
+  </si>
+  <si>
+    <t>bibolo</t>
+  </si>
+  <si>
+    <t>africanplum</t>
+  </si>
+  <si>
+    <t>sapele</t>
+  </si>
+  <si>
+    <t>iroko</t>
+  </si>
+  <si>
+    <t>opepe</t>
+  </si>
+  <si>
+    <t>raphiapalm</t>
+  </si>
+  <si>
+    <t>groundnut</t>
+  </si>
+  <si>
+    <t>framiré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraké </t>
+  </si>
+  <si>
+    <t>prekese</t>
+  </si>
+  <si>
+    <t>africanbreadfruit</t>
+  </si>
+  <si>
+    <t>ayous</t>
+  </si>
+  <si>
+    <t>bitterleaf</t>
+  </si>
+  <si>
+    <t>spicetree</t>
+  </si>
+  <si>
+    <t>veg-othertype</t>
+  </si>
+  <si>
+    <t>veg-name</t>
+  </si>
+  <si>
+    <t>Other vegetation type</t>
+  </si>
+  <si>
+    <t>selected(${veg-name} , 'other')</t>
+  </si>
+  <si>
+    <t>What are the woody vegetation types across the site?</t>
+  </si>
+  <si>
+    <t>What is the other type(s) of woody vegetation?</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>veg_names</t>
+  </si>
+  <si>
+    <t>oilbean</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Name or initials to identify the author of the form</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>max-pixels=1536</t>
+  </si>
+  <si>
+    <t>Annotate the photo by drawing on it if you want</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>site-distance</t>
+  </si>
+  <si>
+    <t>${site-distance}&gt;0</t>
+  </si>
+  <si>
+    <t>Mineral Processing</t>
+  </si>
+  <si>
+    <t>Mineral Extraction</t>
+  </si>
+  <si>
+    <t>ASM Project Land Cover Survey</t>
+  </si>
+  <si>
+    <t>concat(${site-author}, ' ', ${site-name},' ',${starttime})</t>
+  </si>
+  <si>
+    <t>(selected(${site-lclu}, 'extraction') or selected(${site-lclu}, 'processing') )</t>
+  </si>
+  <si>
+    <t>select_one lclu</t>
+  </si>
+  <si>
+    <t>selected(${site-lclu}, 'extraction')</t>
+  </si>
+  <si>
+    <t>Additional  observations and notes</t>
+  </si>
+  <si>
+    <t>site-notes</t>
+  </si>
+  <si>
+    <t>Enter in any other observations or notes for the site here.</t>
+  </si>
+  <si>
+    <t>selected(${site-lclu}, 'processing')</t>
+  </si>
+  <si>
+    <t>Optional trash pile photo</t>
+  </si>
+  <si>
+    <t>Take a photo of the trash pile.</t>
+  </si>
+  <si>
+    <t>Take a photo of a pit.</t>
+  </si>
+  <si>
+    <t>Optional pit photo</t>
+  </si>
+  <si>
+    <t>mine-trashlength</t>
+  </si>
+  <si>
+    <t>mine-trashwidth</t>
+  </si>
+  <si>
+    <t>mine-trashvolume</t>
+  </si>
+  <si>
+    <t>mine-trashvolumenote</t>
+  </si>
+  <si>
+    <t>mine-pitvolumenote</t>
+  </si>
+  <si>
+    <t>Estimated length of a tailings pile in meters</t>
+  </si>
+  <si>
+    <t>Estimated width of a tailings pile in meters</t>
+  </si>
+  <si>
+    <t>Estimated height of a tailings pile in meters</t>
+  </si>
+  <si>
+    <t>Estimated length of a pit in meters</t>
+  </si>
+  <si>
+    <t>Estimated width of a pit in meters</t>
+  </si>
+  <si>
+    <t>Estimated depth of a pit in meters</t>
+  </si>
+  <si>
+    <t>${mine-trashlength} * ${mine-trashwidth}* ${mine-trashheight}</t>
+  </si>
+  <si>
+    <t>mine-trashheight</t>
+  </si>
+  <si>
+    <t>${mine-trashheight} &gt; 0</t>
+  </si>
+  <si>
+    <t>Optional tailings pond photo</t>
+  </si>
+  <si>
+    <t>Photo of the tailings ponds(s).</t>
+  </si>
+  <si>
+    <t>Estimated number of tailings pile on site</t>
+  </si>
+  <si>
+    <t>Estimated number of tailings ponds on site</t>
+  </si>
+  <si>
+    <t>Is there a trash pile?</t>
+  </si>
+  <si>
+    <t>select_multiple tailings_colour</t>
+  </si>
+  <si>
+    <t>Estimated number of pits in the site area</t>
+  </si>
+  <si>
+    <t>start=0;end=500;step=50</t>
+  </si>
+  <si>
+    <t>machinery</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>excavators</t>
+  </si>
+  <si>
+    <t>Excavators</t>
+  </si>
+  <si>
+    <t>generators</t>
+  </si>
+  <si>
+    <t>Generators</t>
+  </si>
+  <si>
+    <t>dredger</t>
+  </si>
+  <si>
+    <t>Dredger</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>Industrial mining equipment</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>abobyaa</t>
+  </si>
+  <si>
+    <t>Abobyaa (tricycle)</t>
+  </si>
+  <si>
+    <t>pumps</t>
+  </si>
+  <si>
+    <t>Pumps (gas/electric)</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>Pick/how/shovel</t>
+  </si>
+  <si>
+    <t>hammerchisel</t>
+  </si>
+  <si>
+    <t>Hammer chisel</t>
+  </si>
+  <si>
+    <t>lightgrey</t>
+  </si>
+  <si>
+    <t>darkgrey</t>
+  </si>
+  <si>
+    <t>What is the colour of the tailings pile?</t>
+  </si>
+  <si>
+    <t>What type of processing is being undertaken?</t>
+  </si>
+  <si>
+    <t>What is the colour of tailings ponds</t>
+  </si>
+  <si>
+    <t>lccs_001</t>
+  </si>
+  <si>
+    <t>shelter</t>
+  </si>
+  <si>
+    <t>tarp</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>start=0;end=100;step=5</t>
+  </si>
+  <si>
+    <t>start=0;end=50;step=5</t>
+  </si>
+  <si>
+    <t>start=0;end=20;step=2</t>
+  </si>
+  <si>
+    <t>start=0;end=100;step=1</t>
+  </si>
+  <si>
+    <t>start=0;end=50;step=4</t>
+  </si>
+  <si>
+    <t>start=0;end=50;step=1</t>
+  </si>
+  <si>
+    <t>select_multiple shelter</t>
+  </si>
+  <si>
+    <t>mine-sheltertype</t>
+  </si>
+  <si>
+    <t>What is the shelter made of?</t>
+  </si>
+  <si>
+    <t>Select the type of shelter material.</t>
+  </si>
+  <si>
+    <t>deposit-shelterother</t>
+  </si>
+  <si>
+    <t>Other shelter type</t>
+  </si>
+  <si>
+    <t>What is the other shelter type?</t>
+  </si>
+  <si>
+    <t>${mine-sheltertype} = 'other'</t>
+  </si>
+  <si>
+    <t>Tarp</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Calculated trash volume: ${mine-trashvolume} m3</t>
+  </si>
+  <si>
+    <t>harvested</t>
+  </si>
+  <si>
+    <t>Harvested</t>
+  </si>
+  <si>
+    <t>select_one management_stage</t>
+  </si>
+  <si>
+    <t>crop_management</t>
+  </si>
+  <si>
+    <t>What is the current management of the landcover?</t>
+  </si>
+  <si>
+    <t>selected(${site-lclu}, 'crop') or selected(${site-lclu}, 'treecrop') or selected(${site-lclu}, 'shrubcrop') or selected(${site-lclu}, 'grassland')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${site-lclu}, 'crop') or selected(${site-lclu}, 'treecrop') or selected(${site-lclu}, 'shrubcrop') </t>
+  </si>
+  <si>
+    <t>start=0;end=30;step=2</t>
+  </si>
+  <si>
+    <t>About many tailings ponds are on site?</t>
+  </si>
+  <si>
+    <t>start=0;end=50;step=2</t>
+  </si>
+  <si>
+    <t>A short description of the site</t>
+  </si>
+  <si>
+    <t>Please enter your name or initials</t>
+  </si>
+  <si>
+    <t>This allows you to select a distance and bearing to the site.</t>
+  </si>
+  <si>
+    <t>Woody vegetation type</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>intro</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a sample for introductory and debugging purposes. It is updated periodically so check "Get Blank Form" to get the latest! </t>
-  </si>
-  <si>
-    <t>The ASM project form allows you to collect field data across a range of environmental and mining domains.</t>
-  </si>
-  <si>
-    <t>site-author</t>
-  </si>
-  <si>
-    <t>Mine status</t>
-  </si>
-  <si>
-    <t>Mine access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columns-pack	</t>
-  </si>
-  <si>
-    <t>settlement</t>
-  </si>
-  <si>
-    <t>Settlement</t>
-  </si>
-  <si>
-    <t>Site land covers</t>
-  </si>
-  <si>
-    <t>Select the land cover types (including presence of mining or processing) around the site. This will control what survey elements are required.</t>
-  </si>
-  <si>
-    <t>climate-other</t>
-  </si>
-  <si>
-    <t>mine-pitvolume</t>
-  </si>
-  <si>
-    <t>${mine-pitlength} * ${mine-pitwidth}* ${mine-pitdepth}</t>
-  </si>
-  <si>
-    <t>roadsurface-other</t>
-  </si>
-  <si>
-    <t>Other road surface</t>
-  </si>
-  <si>
-    <t>What is the other type of road surface?</t>
-  </si>
-  <si>
-    <t>accessibility-other</t>
-  </si>
-  <si>
-    <t>Other mine access type</t>
-  </si>
-  <si>
-    <t>What is the other type of mine access?</t>
-  </si>
-  <si>
-    <t>Other site equipment type</t>
-  </si>
-  <si>
-    <t>What is the other type of site equipment?</t>
-  </si>
-  <si>
-    <t>What is the other type of machinery?</t>
-  </si>
-  <si>
-    <t>Calculated pit volume: ${mine-pitvolume} m3</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>charcol</t>
-  </si>
-  <si>
-    <t>Charcol Production</t>
-  </si>
-  <si>
-    <t>drought</t>
-  </si>
-  <si>
-    <t>flood</t>
-  </si>
-  <si>
-    <t>Other climate impact</t>
-  </si>
-  <si>
-    <t>select_multiple climate</t>
-  </si>
-  <si>
-    <t>Site climate impacts</t>
-  </si>
-  <si>
-    <t>Select any recent climate impacts on the site.</t>
-  </si>
-  <si>
-    <t>What is the other type of climate impact?</t>
-  </si>
-  <si>
-    <t>Other climate impact name</t>
-  </si>
-  <si>
-    <t>selected(${site-climate} , 'other')</t>
-  </si>
-  <si>
-    <t>unpaved</t>
-  </si>
-  <si>
-    <t>Unpaved but compacted</t>
-  </si>
-  <si>
-    <t>Dirt (Unformed)</t>
-  </si>
-  <si>
-    <t>selected(${site-roadsurface} , 'other')</t>
-  </si>
-  <si>
-    <t>selected(${mine-accessibility} , 'other')</t>
-  </si>
-  <si>
-    <t>processing-types</t>
-  </si>
-  <si>
-    <t>Select all the processing activities on the site.</t>
-  </si>
-  <si>
-    <t>processing_type</t>
-  </si>
-  <si>
-    <t>tailings</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>crushing</t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
-    <t>Tailings Present</t>
-  </si>
-  <si>
-    <t>Crushing Equipment</t>
-  </si>
-  <si>
-    <t>Physical Processing Equipment</t>
-  </si>
-  <si>
-    <t>Chemical Processing Equipment</t>
-  </si>
-  <si>
-    <t>selected(${processing-types}, 'tailings')</t>
-  </si>
-  <si>
-    <t>select_multiple processing_type</t>
-  </si>
-  <si>
-    <t>Average length of the tailings pond in meters</t>
-  </si>
-  <si>
-    <t>Average width of the tailings pond in meters</t>
-  </si>
-  <si>
-    <t>tailings_colour</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Light Grey</t>
-  </si>
-  <si>
-    <t>Dark Grey</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>What is the other colour of the tailings pile?</t>
-  </si>
-  <si>
-    <t>Select the colour of tailings ponds</t>
-  </si>
-  <si>
-    <t>processing-tailingspilephoto</t>
-  </si>
-  <si>
-    <t>processing-tailingspilenumber</t>
-  </si>
-  <si>
-    <t>processing-tailingspilelength</t>
-  </si>
-  <si>
-    <t>processing-tailingspilecolour</t>
-  </si>
-  <si>
-    <t>processing-tailingspileothercolor</t>
-  </si>
-  <si>
-    <t>processing-tailingspondphoto</t>
-  </si>
-  <si>
-    <t>processing-tailingspondnumber</t>
-  </si>
-  <si>
-    <t>processing-tailingspondlength</t>
-  </si>
-  <si>
-    <t>processing-tailingspondcolour</t>
-  </si>
-  <si>
-    <t>processing-tailingspondothercolor</t>
-  </si>
-  <si>
-    <t>selected(${processing-tailingspondcolour}, 'other')</t>
-  </si>
-  <si>
-    <t>selected(${processing-tailingspilecolour}, 'other')</t>
-  </si>
-  <si>
-    <t>${processing-tailingspondnumber} &gt; 0</t>
-  </si>
-  <si>
-    <t>${processing-tailingspilenumber} &gt; 0</t>
-  </si>
-  <si>
-    <t>Tailings pile photo</t>
-  </si>
-  <si>
-    <t>Photo of the tailings pile(s).  Annotate the photo if required to show scale.</t>
-  </si>
-  <si>
-    <t>How many tailings pile are on site</t>
-  </si>
-  <si>
-    <t>Select the colour of tailings pile</t>
-  </si>
-  <si>
-    <t>What is the other colour of the tailings pond?</t>
-  </si>
-  <si>
-    <t>Average pond length</t>
-  </si>
-  <si>
-    <t>Average pond width</t>
-  </si>
-  <si>
-    <t>Average pile length</t>
-  </si>
-  <si>
-    <t>Average pile width</t>
-  </si>
-  <si>
-    <t>processing-tailingspondwidth</t>
-  </si>
-  <si>
-    <t>processing-tailingspilewidth</t>
-  </si>
-  <si>
-    <t>Recent flooding</t>
-  </si>
-  <si>
-    <t>Drought</t>
-  </si>
-  <si>
-    <t>Recent fire</t>
-  </si>
-  <si>
-    <t>chemical_processing</t>
-  </si>
-  <si>
-    <t>Mercury amalgamation</t>
-  </si>
-  <si>
-    <t>Cyanidisation (leaching) - acid</t>
-  </si>
-  <si>
-    <t>Direct smelting (borax, potassium nitrate)</t>
-  </si>
-  <si>
-    <t>mercury</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>cyanide</t>
-  </si>
-  <si>
-    <t>Average length of the tailings pile(s) in meters</t>
-  </si>
-  <si>
-    <t>Average width of the tailings pile(s) in meters</t>
-  </si>
-  <si>
-    <t>${mine-pitdepth} &gt; 0</t>
-  </si>
-  <si>
-    <t>processing-tailingspilearea</t>
-  </si>
-  <si>
-    <t>processing-tailingspileareanote</t>
-  </si>
-  <si>
-    <t>${processing-tailingspilewidth} &gt; 0</t>
-  </si>
-  <si>
-    <t>Calculated tailings pile area: ${processing-tailingspilearea} m2</t>
-  </si>
-  <si>
-    <t>${processing-tailingspilelength} * ${processing-tailingspilewidth}</t>
-  </si>
-  <si>
-    <t>processing-tailingspondarea</t>
-  </si>
-  <si>
-    <t>processing-tailingspondareanote</t>
-  </si>
-  <si>
-    <t>Calculated tailings pond area: ${processing-tailingspondarea} m2</t>
-  </si>
-  <si>
-    <t>${processing-tailingspondwidth} &gt; 0</t>
-  </si>
-  <si>
-    <t>${processing-tailingspondlength} * ${processing-tailingspondwidth}</t>
-  </si>
-  <si>
-    <t>Other tailings pile colour</t>
-  </si>
-  <si>
-    <t>Other tailings pond colour</t>
-  </si>
-  <si>
-    <t>count-selected(${site-lclu}) &gt; 0</t>
-  </si>
-  <si>
-    <t>site-lcluother</t>
-  </si>
-  <si>
-    <t>Other site land use</t>
-  </si>
-  <si>
-    <t>What is the other type of land cover or land use?</t>
-  </si>
-  <si>
-    <t>selected(${site-lclu} , 'other')</t>
-  </si>
-  <si>
-    <t>management_stage</t>
-  </si>
-  <si>
-    <t>Abandoned</t>
-  </si>
-  <si>
-    <t>Baled</t>
-  </si>
-  <si>
-    <t>Burnt</t>
-  </si>
-  <si>
-    <t>Cultivated</t>
-  </si>
-  <si>
-    <t>Grazed</t>
-  </si>
-  <si>
-    <t>Mulched</t>
-  </si>
-  <si>
-    <t>select_multiple commodity</t>
-  </si>
-  <si>
-    <t>crop-type</t>
-  </si>
-  <si>
-    <t>crop-othertype</t>
-  </si>
-  <si>
-    <t>Other crop type</t>
-  </si>
-  <si>
-    <t>What is the other type of crop(s)?</t>
-  </si>
-  <si>
-    <t>selected(${crop-type} , 'other')</t>
-  </si>
-  <si>
-    <t>Crop name</t>
-  </si>
-  <si>
-    <t>What crops are on the site?</t>
-  </si>
-  <si>
-    <t>crop</t>
-  </si>
-  <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Cassava</t>
-  </si>
-  <si>
-    <t>Fresh vegetables</t>
-  </si>
-  <si>
-    <t>Maize</t>
-  </si>
-  <si>
-    <t>Millet</t>
-  </si>
-  <si>
-    <t>Oil palm fruit</t>
-  </si>
-  <si>
-    <t>Oranges</t>
-  </si>
-  <si>
-    <t>Plantains</t>
-  </si>
-  <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
-    <t>Sorghum</t>
-  </si>
-  <si>
-    <t>Sugar beet</t>
-  </si>
-  <si>
-    <t>Sugar cane</t>
-  </si>
-  <si>
-    <t>Sweet potatoes</t>
-  </si>
-  <si>
-    <t>Tomatoes</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Yams</t>
-  </si>
-  <si>
-    <t>Groundnuts</t>
-  </si>
-  <si>
-    <t>abandoned</t>
-  </si>
-  <si>
-    <t>baled</t>
-  </si>
-  <si>
-    <t>burnt</t>
-  </si>
-  <si>
-    <t>cultivated</t>
-  </si>
-  <si>
-    <t>grazed</t>
-  </si>
-  <si>
-    <t>mulched</t>
-  </si>
-  <si>
-    <t>bananas</t>
-  </si>
-  <si>
-    <t>cassava</t>
-  </si>
-  <si>
-    <t>groundnuts</t>
-  </si>
-  <si>
-    <t>maize</t>
-  </si>
-  <si>
-    <t>millet</t>
-  </si>
-  <si>
-    <t>oranges</t>
-  </si>
-  <si>
-    <t>plantains</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>sorghum</t>
-  </si>
-  <si>
-    <t>tomatoes</t>
-  </si>
-  <si>
-    <t>wheat</t>
-  </si>
-  <si>
-    <t>yams</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>oilpalm</t>
-  </si>
-  <si>
-    <t>onions</t>
-  </si>
-  <si>
-    <t>Onions</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>sugarbeet</t>
-  </si>
-  <si>
-    <t>sugarcane</t>
-  </si>
-  <si>
-    <t>sweetpotatoes</t>
-  </si>
-  <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>(selected(${site-lclu}, 'forest') or selected(${site-lclu}, 'woodland')) or selected(${site-lclu}, 'shrubland')</t>
-  </si>
-  <si>
-    <t>shrubcrop</t>
-  </si>
-  <si>
-    <t>treecrop</t>
-  </si>
-  <si>
-    <t>select_multiple veg_names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayinda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprokuma/Onzabili </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moabi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rattan </t>
-  </si>
-  <si>
-    <t>Aiele/African canarium/Incense</t>
-  </si>
-  <si>
-    <t>Star apple</t>
-  </si>
-  <si>
-    <t>Kola nut</t>
-  </si>
-  <si>
-    <t>Monkey kola</t>
-  </si>
-  <si>
-    <t>African plum/Safoutier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapele/Tiama/Utile/Sipo </t>
-  </si>
-  <si>
-    <t>Bitter kola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ero </t>
-  </si>
-  <si>
-    <t>Bush mango/Andok</t>
-  </si>
-  <si>
-    <t>African mahogany</t>
-  </si>
-  <si>
-    <t>Bibolo/African walnut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iroko/Mvule/Odum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opepe/Kusia/Bilinga </t>
-  </si>
-  <si>
-    <t>Oil bean</t>
-  </si>
-  <si>
-    <t>Raphia palm</t>
-  </si>
-  <si>
-    <t>Groundnut tree/Nyangsang/Essessang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Framiré/Idigbo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraké/Afara/Limba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prekese/Akpa </t>
-  </si>
-  <si>
-    <t>African breadfruit/Etoup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaku </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayous/Obeche/Wawa </t>
-  </si>
-  <si>
-    <t>Bitter leaf</t>
-  </si>
-  <si>
-    <t>Spice tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayinda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">moabi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rattan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">anaku </t>
-  </si>
-  <si>
-    <t>aprokuma</t>
-  </si>
-  <si>
-    <t>aiele</t>
-  </si>
-  <si>
-    <t>starapple</t>
-  </si>
-  <si>
-    <t>kolanut</t>
-  </si>
-  <si>
-    <t>monkeykola</t>
-  </si>
-  <si>
-    <t>coulanut</t>
-  </si>
-  <si>
-    <t>Coula nut/African Walnut</t>
-  </si>
-  <si>
-    <t>bitterkola</t>
-  </si>
-  <si>
-    <t>bushmang</t>
-  </si>
-  <si>
-    <t>africanmahogany</t>
-  </si>
-  <si>
-    <t>bibolo</t>
-  </si>
-  <si>
-    <t>africanplum</t>
-  </si>
-  <si>
-    <t>sapele</t>
-  </si>
-  <si>
-    <t>iroko</t>
-  </si>
-  <si>
-    <t>opepe</t>
-  </si>
-  <si>
-    <t>raphiapalm</t>
-  </si>
-  <si>
-    <t>groundnut</t>
-  </si>
-  <si>
-    <t>framiré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fraké </t>
-  </si>
-  <si>
-    <t>prekese</t>
-  </si>
-  <si>
-    <t>africanbreadfruit</t>
-  </si>
-  <si>
-    <t>ayous</t>
-  </si>
-  <si>
-    <t>bitterleaf</t>
-  </si>
-  <si>
-    <t>spicetree</t>
-  </si>
-  <si>
-    <t>veg-othertype</t>
-  </si>
-  <si>
-    <t>veg-name</t>
-  </si>
-  <si>
-    <t>Other vegetation type</t>
-  </si>
-  <si>
-    <t>selected(${veg-name} , 'other')</t>
-  </si>
-  <si>
-    <t>What are the woody vegetation types across the site?</t>
-  </si>
-  <si>
-    <t>What is the other type(s) of woody vegetation?</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>veg_names</t>
-  </si>
-  <si>
-    <t>oilbean</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
-    <t>Please enter your initials</t>
-  </si>
-  <si>
-    <t>Name or initials to identify the author of the form</t>
-  </si>
-  <si>
-    <t>max-pixels=1024</t>
-  </si>
-  <si>
-    <t>max-pixels=1536</t>
-  </si>
-  <si>
-    <t>Annotate the photo by drawing on it if you want</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>bearing</t>
-  </si>
-  <si>
-    <t>site_bearing</t>
-  </si>
-  <si>
-    <t>Site Bearing</t>
-  </si>
-  <si>
-    <t>site-distance</t>
-  </si>
-  <si>
-    <t>If you are not on the site, specify a distance to the site</t>
-  </si>
-  <si>
-    <t>Distance to site in meters</t>
-  </si>
-  <si>
-    <t>${site-distance}&gt;0</t>
-  </si>
-  <si>
-    <t>If you are not on the site, specify a bearing to the site</t>
-  </si>
-  <si>
-    <t>Mineral Processing</t>
-  </si>
-  <si>
-    <t>Mineral Extraction</t>
-  </si>
-  <si>
-    <t>ASM Project Land Cover Survey</t>
-  </si>
-  <si>
-    <t>concat(${site-author}, ' ', ${site-name},' ',${starttime})</t>
-  </si>
-  <si>
-    <t>(selected(${site-lclu}, 'extraction') or selected(${site-lclu}, 'processing') )</t>
-  </si>
-  <si>
-    <t>select_one lclu</t>
-  </si>
-  <si>
-    <t>selected(${site-lclu}, 'extraction')</t>
-  </si>
-  <si>
-    <t>Additional  observations and notes</t>
-  </si>
-  <si>
-    <t>site-notes</t>
-  </si>
-  <si>
-    <t>Enter in any other observations or notes for the site here.</t>
-  </si>
-  <si>
-    <t>selected(${site-lclu}, 'processing')</t>
-  </si>
-  <si>
-    <t>Optional trash pile photo</t>
-  </si>
-  <si>
-    <t>Take a photo of the trash pile.</t>
-  </si>
-  <si>
-    <t>Take a photo of a pit.</t>
-  </si>
-  <si>
-    <t>Optional pit photo</t>
-  </si>
-  <si>
-    <t>mine-trashlength</t>
-  </si>
-  <si>
-    <t>mine-trashwidth</t>
-  </si>
-  <si>
-    <t>mine-trashvolume</t>
-  </si>
-  <si>
-    <t>mine-trashvolumenote</t>
-  </si>
-  <si>
-    <t>mine-pitvolumenote</t>
-  </si>
-  <si>
-    <t>Estimated length of a tailings pile in meters</t>
-  </si>
-  <si>
-    <t>Estimated width of a tailings pile in meters</t>
-  </si>
-  <si>
-    <t>Estimated height of a tailings pile in meters</t>
-  </si>
-  <si>
-    <t>Estimated length of a pit in meters</t>
-  </si>
-  <si>
-    <t>Estimated width of a pit in meters</t>
-  </si>
-  <si>
-    <t>Estimated depth of a pit in meters</t>
-  </si>
-  <si>
-    <t>${mine-trashlength} * ${mine-trashwidth}* ${mine-trashheight}</t>
-  </si>
-  <si>
-    <t>mine-trashheight</t>
-  </si>
-  <si>
-    <t>${mine-trashheight} &gt; 0</t>
-  </si>
-  <si>
-    <t>Optional tailings pond photo</t>
-  </si>
-  <si>
-    <t>Photo of the tailings ponds(s).</t>
-  </si>
-  <si>
-    <t>Estimated number of tailings pile on site</t>
-  </si>
-  <si>
-    <t>Estimated number of tailings ponds on site</t>
-  </si>
-  <si>
-    <t>Length of a trash pile</t>
-  </si>
-  <si>
-    <t>Width of a trash pile</t>
-  </si>
-  <si>
-    <t>Height of a trash pile</t>
-  </si>
-  <si>
-    <t>Is there a trash pile?</t>
-  </si>
-  <si>
-    <t>select_multiple tailings_colour</t>
-  </si>
-  <si>
-    <t>Estimated number of pits in the site area</t>
-  </si>
-  <si>
-    <t>begin_group</t>
-  </si>
-  <si>
-    <t>site-group</t>
-  </si>
-  <si>
-    <t>Site information</t>
-  </si>
-  <si>
-    <t>A site is defined as a small area of land representative of the landform, vegetation, land surface and other land features associated with the observation.</t>
-  </si>
-  <si>
-    <t>end_group</t>
-  </si>
-  <si>
-    <t>landcover-group</t>
-  </si>
-  <si>
-    <t>Additional landcover information</t>
-  </si>
-  <si>
-    <t>start=0;end=500;step=50</t>
-  </si>
-  <si>
-    <t>machinery</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>excavators</t>
-  </si>
-  <si>
-    <t>Excavators</t>
-  </si>
-  <si>
-    <t>generators</t>
-  </si>
-  <si>
-    <t>Generators</t>
-  </si>
-  <si>
-    <t>dredger</t>
-  </si>
-  <si>
-    <t>Dredger</t>
-  </si>
-  <si>
-    <t>truck</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>Industrial mining equipment</t>
-  </si>
-  <si>
-    <t>equipment</t>
-  </si>
-  <si>
-    <t>abobyaa</t>
-  </si>
-  <si>
-    <t>Abobyaa (tricycle)</t>
-  </si>
-  <si>
-    <t>pumps</t>
-  </si>
-  <si>
-    <t>Pumps (gas/electric)</t>
-  </si>
-  <si>
-    <t>pick</t>
-  </si>
-  <si>
-    <t>Pick/how/shovel</t>
-  </si>
-  <si>
-    <t>hammerchisel</t>
-  </si>
-  <si>
-    <t>Hammer chisel</t>
-  </si>
-  <si>
-    <t>lightgrey</t>
-  </si>
-  <si>
-    <t>darkgrey</t>
-  </si>
-  <si>
-    <t>What is the colour of the tailings pile?</t>
-  </si>
-  <si>
-    <t>What type of processing is being undertaken?</t>
-  </si>
-  <si>
-    <t>What is the colour of tailings ponds</t>
-  </si>
-  <si>
-    <t>lccs_001</t>
-  </si>
-  <si>
-    <t>shelter</t>
-  </si>
-  <si>
-    <t>tarp</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>vegetation</t>
-  </si>
-  <si>
-    <t>start=0;end=100;step=5</t>
-  </si>
-  <si>
-    <t>start=0;end=50;step=5</t>
-  </si>
-  <si>
-    <t>start=0;end=20;step=2</t>
-  </si>
-  <si>
-    <t>start=0;end=100;step=1</t>
-  </si>
-  <si>
-    <t>start=0;end=50;step=4</t>
-  </si>
-  <si>
-    <t>start=0;end=50;step=1</t>
-  </si>
-  <si>
-    <t>select_multiple shelter</t>
-  </si>
-  <si>
-    <t>mine-sheltertype</t>
-  </si>
-  <si>
-    <t>What is the shelter made of?</t>
-  </si>
-  <si>
-    <t>Select the type of shelter material.</t>
-  </si>
-  <si>
-    <t>deposit-shelterother</t>
-  </si>
-  <si>
-    <t>Other shelter type</t>
-  </si>
-  <si>
-    <t>What is the other shelter type?</t>
-  </si>
-  <si>
-    <t>${mine-sheltertype} = 'other'</t>
-  </si>
-  <si>
-    <t>Tarp</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Calculated trash volume: ${mine-trashvolume} m3</t>
-  </si>
-  <si>
-    <t>harvested</t>
-  </si>
-  <si>
-    <t>Harvested</t>
-  </si>
-  <si>
-    <t>select_one management_stage</t>
-  </si>
-  <si>
-    <t>crop_management</t>
-  </si>
-  <si>
-    <t>What is the current management of the landcover?</t>
-  </si>
-  <si>
-    <t>selected(${site-lclu}, 'crop') or selected(${site-lclu}, 'treecrop') or selected(${site-lclu}, 'shrubcrop') or selected(${site-lclu}, 'grassland')</t>
-  </si>
-  <si>
-    <t>Management stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${site-lclu}, 'crop') or selected(${site-lclu}, 'treecrop') or selected(${site-lclu}, 'shrubcrop') </t>
-  </si>
-  <si>
-    <t>start=0;end=30;step=2</t>
-  </si>
-  <si>
-    <t>About many tailings ponds are on site?</t>
-  </si>
-  <si>
-    <t>start=0;end=50;step=2</t>
+    <t>Select how the mine can be accessed. Please select all that apply</t>
+  </si>
+  <si>
+    <t>mine-road</t>
+  </si>
+  <si>
+    <t>mine-roadsurface</t>
+  </si>
+  <si>
+    <t>selected(${mine-roadsurface} , 'other')</t>
+  </si>
+  <si>
+    <t>If you are not on the site, estimate a distance to the site</t>
+  </si>
+  <si>
+    <t>If you are not on the site, use the device sensor to estimate  a bearing to the site,</t>
+  </si>
+  <si>
+    <t>Use GPS to estimate the location of the site</t>
+  </si>
+  <si>
+    <t>Enter a descriptive and unique name for the Site</t>
+  </si>
+  <si>
+    <t>Crop or grassland management stage</t>
+  </si>
+  <si>
+    <t>A site is defined as a small area of land representative of the landform, vegetation, land surface and other land features associated with the observation. You are starting to fill out this form at ${starttime}.</t>
+  </si>
+  <si>
+    <t>Please enter a unique site name</t>
+  </si>
+  <si>
+    <t>What is the dominant site land cover</t>
+  </si>
+  <si>
+    <t>Select the land cover type of the site. This will control what survey elements are required.</t>
+  </si>
+  <si>
+    <t>Have there been any recent climate impacts</t>
+  </si>
+  <si>
+    <t>Enter an optional site description</t>
+  </si>
+  <si>
+    <t>Collect the site location</t>
+  </si>
+  <si>
+    <t>site-offsite</t>
+  </si>
+  <si>
+    <t>site-bearing</t>
+  </si>
+  <si>
+    <t>${site-offsite} = 'no'</t>
+  </si>
+  <si>
+    <t>Estimated distance to the site in meters</t>
+  </si>
+  <si>
+    <t>Estimated site compass bearing as degrees from North</t>
+  </si>
+  <si>
+    <t>Take a photo of the site</t>
+  </si>
+  <si>
+    <t>How can the mine be accessed?</t>
+  </si>
+  <si>
+    <t>What is the current status of the mine</t>
+  </si>
+  <si>
+    <t>What is the type of road connecting the mine?</t>
+  </si>
+  <si>
+    <t>What is the type of road surface at the mine?</t>
+  </si>
+  <si>
+    <t>Other road surface type?</t>
+  </si>
+  <si>
+    <t>What is the type of the mineral deposit</t>
+  </si>
+  <si>
+    <t>Is the GPS point you collected  in the selected landcover?</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Estimated average length of a pit</t>
+  </si>
+  <si>
+    <t>Estimated average width of a pit</t>
+  </si>
+  <si>
+    <t>Estimated average depth of a pit</t>
+  </si>
+  <si>
+    <t>Estimated average length of a shelter</t>
+  </si>
+  <si>
+    <t>Estimated average width of a shelter</t>
+  </si>
+  <si>
+    <t>Estimated average pond length</t>
+  </si>
+  <si>
+    <t>Estimated average pond width</t>
+  </si>
+  <si>
+    <t>Estimated average pile length</t>
+  </si>
+  <si>
+    <t>Estimated average pile width</t>
+  </si>
+  <si>
+    <t>Estimated average height of a trash pile</t>
+  </si>
+  <si>
+    <t>Estimated average width of a trash pile</t>
+  </si>
+  <si>
+    <t>Estimated average length of a trash pile</t>
+  </si>
+  <si>
+    <t>Optional tailings pile photo</t>
   </si>
 </sst>
 </file>
@@ -2191,13 +2176,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2279,121 +2264,98 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>509</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>481</v>
+        <v>153</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>388</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>428</v>
+        <v>510</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -2401,418 +2363,448 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>511</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>107</v>
+        <v>512</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>438</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>437</v>
+        <v>174</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>487</v>
+      <c r="G12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>432</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>434</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>446</v>
+        <v>99</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>93</v>
+        <v>516</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>180</v>
+        <v>528</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="H15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>543</v>
-      </c>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>357</v>
+        <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>353</v>
+        <v>524</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="3" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>175</v>
+        <v>522</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="3" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,895 +2812,812 @@
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" s="3"/>
+      <c r="A37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>101</v>
+        <v>407</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>102</v>
+        <v>408</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="3" t="s">
-        <v>447</v>
+      <c r="F38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="M38" s="5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
+      <c r="A39" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>105</v>
+        <v>542</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>177</v>
+      <c r="A41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E42" s="7"/>
+      <c r="A42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="F42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="M42" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>140</v>
+      <c r="A43" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>461</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="F43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>520</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>520</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="F46" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>467</v>
+        <v>124</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="M46" s="5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>14</v>
+      <c r="A47" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>459</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>531</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="F47" s="5" t="s">
-        <v>469</v>
+        <v>124</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>523</v>
+        <v>533</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>454</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="F50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="M50" s="5" t="s">
-        <v>429</v>
+        <v>237</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>140</v>
+      <c r="A51" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>150</v>
+        <v>415</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>464</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="F51" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>546</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>140</v>
+      <c r="A52" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>546</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>140</v>
+      <c r="A53" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>170</v>
+        <v>473</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>524</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+        <v>475</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>184</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>14</v>
+      <c r="A55" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>534</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>275</v>
+        <v>141</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>112</v>
+      <c r="A56" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>145</v>
+        <v>535</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>526</v>
+      <c r="A57" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>158</v>
+        <v>132</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>533</v>
+        <v>149</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>521</v>
+        <v>145</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="3" t="s">
+    </row>
+    <row r="64" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="M65" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>177</v>
+      <c r="F67" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>140</v>
+      <c r="A68" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>525</v>
+        <v>243</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="F68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>471</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="F69" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="M69" s="6" t="s">
-        <v>429</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>257</v>
+        <v>213</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>546</v>
+        <v>217</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="F72" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
+        <v>222</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>14</v>
+      <c r="A73" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="F73" s="6" t="s">
-        <v>284</v>
+        <v>206</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>478</v>
+      <c r="A74" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>514</v>
+        <v>205</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="M74" s="6" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>287</v>
+        <v>538</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>235</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
     <row r="77" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>140</v>
+      <c r="A77" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>525</v>
+        <v>238</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="F77" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>253</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D78" s="7"/>
       <c r="F78" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="M78" s="6" t="s">
-        <v>429</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>548</v>
+        <v>218</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="F81" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="F82" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>485</v>
+      <c r="B82" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3724,13 +3633,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3805,10 +3714,10 @@
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>28</v>
@@ -3839,13 +3748,13 @@
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
@@ -3874,7 +3783,7 @@
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3906,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
@@ -3940,10 +3849,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
@@ -3974,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
@@ -4006,7 +3915,7 @@
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4036,7 +3945,7 @@
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4065,13 +3974,13 @@
     </row>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
@@ -4099,13 +4008,13 @@
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
@@ -4133,13 +4042,13 @@
     </row>
     <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -4167,13 +4076,13 @@
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
@@ -4202,7 +4111,7 @@
     <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4231,10 +4140,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>35</v>
@@ -4243,34 +4152,34 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>36</v>
@@ -4280,7 +4189,7 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
@@ -4290,7 +4199,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>37</v>
@@ -4302,7 +4211,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>38</v>
@@ -4314,7 +4223,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>39</v>
@@ -4326,10 +4235,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -4338,10 +4247,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -4350,7 +4259,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>36</v>
@@ -4360,161 +4269,161 @@
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>36</v>
@@ -4524,7 +4433,7 @@
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="3"/>
@@ -4534,10 +4443,10 @@
         <v>32</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -4546,10 +4455,10 @@
         <v>32</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -4558,10 +4467,10 @@
         <v>32</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -4570,1062 +4479,1083 @@
         <v>32</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="6"/>
+      <c r="A47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="3"/>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>222</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>235</v>
+        <v>455</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>511</v>
+        <v>83</v>
       </c>
       <c r="C62" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>36</v>
+      <c r="C64" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>267</v>
+        <v>234</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="C72" s="5" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>331</v>
+        <v>483</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>299</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>538</v>
+        <v>289</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>539</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>328</v>
+        <v>529</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>296</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>309</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>425</v>
+        <v>294</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>391</v>
+        <v>498</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>359</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>494</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>91</v>
+        <v>442</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>36</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>503</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>508</v>
+        <v>449</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>91</v>
+        <v>451</v>
       </c>
       <c r="C144" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>91</v>
+        <v>463</v>
       </c>
       <c r="C149" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5693,16 +5623,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="C2">
         <v>2022111401</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/landCoverTemplate.xlsx
+++ b/landCoverTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqpscar1_uq_edu_au/Documents/asm/ODK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2568" documentId="11_D78E0D02123FAFB7EF8F93892FCCBBBD22D96E27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622E0841-B363-442C-B907-3C0DBA079537}"/>
+  <xr:revisionPtr revIDLastSave="2570" documentId="11_D78E0D02123FAFB7EF8F93892FCCBBBD22D96E27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116AA672-5F6D-4358-94FD-FD35873517FE}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="544">
   <si>
     <t>type</t>
   </si>
@@ -2179,10 +2179,10 @@
   <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2416,9 +2416,7 @@
       <c r="G12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>434</v>
-      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3633,13 +3631,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4442,11 +4440,11 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>434</v>
+      <c r="B42" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -4455,10 +4453,10 @@
         <v>32</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -4467,31 +4465,31 @@
         <v>32</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="6"/>
+      <c r="A46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4499,10 +4497,10 @@
         <v>54</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -4511,10 +4509,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -4523,34 +4521,33 @@
         <v>54</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="3"/>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4558,10 +4555,10 @@
         <v>181</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4569,21 +4566,21 @@
         <v>181</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="9" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4591,10 +4588,10 @@
         <v>194</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,10 +4599,10 @@
         <v>194</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4613,10 +4610,10 @@
         <v>194</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4624,10 +4621,10 @@
         <v>194</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,21 +4632,21 @@
         <v>194</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,10 +4654,10 @@
         <v>228</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,10 +4665,10 @@
         <v>228</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4679,21 +4676,21 @@
         <v>228</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4701,10 +4698,10 @@
         <v>255</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4712,10 +4709,10 @@
         <v>255</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4723,10 +4720,10 @@
         <v>255</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4734,10 +4731,10 @@
         <v>255</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>293</v>
+        <v>483</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>261</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,10 +4742,10 @@
         <v>255</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>483</v>
+        <v>289</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>484</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4756,10 +4753,10 @@
         <v>255</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,26 +4764,26 @@
         <v>255</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>290</v>
+        <v>529</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>258</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="B76" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>530</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="B77" s="9" t="s">
-        <v>102</v>
+        <v>498</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,10 +4791,10 @@
         <v>383</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>498</v>
+        <v>294</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>497</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,10 +4802,10 @@
         <v>383</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4816,10 +4813,10 @@
         <v>383</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4827,10 +4824,10 @@
         <v>383</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,10 +4835,10 @@
         <v>383</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,10 +4846,10 @@
         <v>383</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4860,10 +4857,10 @@
         <v>383</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,10 +4868,10 @@
         <v>383</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,10 +4879,10 @@
         <v>383</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4893,10 +4890,10 @@
         <v>383</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4904,10 +4901,10 @@
         <v>383</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4915,10 +4912,10 @@
         <v>383</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4926,10 +4923,10 @@
         <v>383</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,10 +4934,10 @@
         <v>383</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4948,10 +4945,10 @@
         <v>383</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4959,10 +4956,10 @@
         <v>383</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4970,10 +4967,10 @@
         <v>383</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,10 +4978,10 @@
         <v>383</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,10 +4989,10 @@
         <v>383</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,10 +5000,10 @@
         <v>383</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5014,21 +5011,21 @@
         <v>383</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="5" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5036,10 +5033,10 @@
         <v>384</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>498</v>
+        <v>347</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>497</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5047,10 +5044,10 @@
         <v>384</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,10 +5055,10 @@
         <v>384</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,10 +5066,10 @@
         <v>384</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5080,10 +5077,10 @@
         <v>384</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5091,10 +5088,10 @@
         <v>384</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5102,10 +5099,10 @@
         <v>384</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5113,10 +5110,10 @@
         <v>384</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5124,10 +5121,10 @@
         <v>384</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5135,10 +5132,10 @@
         <v>384</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5146,10 +5143,10 @@
         <v>384</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,10 +5154,10 @@
         <v>384</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5168,10 +5165,10 @@
         <v>384</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5179,10 +5176,10 @@
         <v>384</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5190,10 +5187,10 @@
         <v>384</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5201,10 +5198,10 @@
         <v>384</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,10 +5209,10 @@
         <v>384</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,10 +5220,10 @@
         <v>384</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,10 +5231,10 @@
         <v>384</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5245,10 +5242,10 @@
         <v>384</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5256,10 +5253,10 @@
         <v>384</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5267,10 +5264,10 @@
         <v>384</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5278,10 +5275,10 @@
         <v>384</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,10 +5286,10 @@
         <v>384</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,10 +5297,10 @@
         <v>384</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5311,10 +5308,10 @@
         <v>384</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5322,10 +5319,10 @@
         <v>384</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5333,10 +5330,10 @@
         <v>384</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,10 +5341,10 @@
         <v>384</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5355,21 +5352,21 @@
         <v>384</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="5" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5377,10 +5374,10 @@
         <v>433</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5388,10 +5385,10 @@
         <v>433</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5399,10 +5396,10 @@
         <v>433</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5410,10 +5407,10 @@
         <v>433</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5421,10 +5418,10 @@
         <v>433</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5432,21 +5429,21 @@
         <v>433</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" s="6" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5454,10 +5451,10 @@
         <v>446</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5465,10 +5462,10 @@
         <v>446</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5476,10 +5473,10 @@
         <v>446</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5487,10 +5484,10 @@
         <v>446</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5498,21 +5495,21 @@
         <v>446</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" s="6" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,10 +5517,10 @@
         <v>461</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,10 +5528,10 @@
         <v>461</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,20 +5539,9 @@
         <v>461</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="5" t="s">
         <v>36</v>
       </c>
     </row>

--- a/landCoverTemplate.xlsx
+++ b/landCoverTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqpscar1_uq_edu_au/Documents/asm/ODK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2570" documentId="11_D78E0D02123FAFB7EF8F93892FCCBBBD22D96E27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116AA672-5F6D-4358-94FD-FD35873517FE}"/>
+  <xr:revisionPtr revIDLastSave="2599" documentId="11_D78E0D02123FAFB7EF8F93892FCCBBBD22D96E27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75FEA90A-F353-48DC-BB30-394D5BDC5018}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="537">
   <si>
     <t>type</t>
   </si>
@@ -349,9 +349,6 @@
     <t>4WD</t>
   </si>
   <si>
-    <t>forest</t>
-  </si>
-  <si>
     <t>Alluvial</t>
   </si>
   <si>
@@ -466,18 +463,12 @@
     <t>woodland</t>
   </si>
   <si>
-    <t>Forest</t>
-  </si>
-  <si>
     <t>Grassland</t>
   </si>
   <si>
     <t>Shrubland</t>
   </si>
   <si>
-    <t>Woodland</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -748,9 +739,6 @@
     <t>flood</t>
   </si>
   <si>
-    <t>select_multiple climate</t>
-  </si>
-  <si>
     <t>Select any recent climate impacts on the site.</t>
   </si>
   <si>
@@ -1000,9 +988,6 @@
     <t>Abandoned</t>
   </si>
   <si>
-    <t>Baled</t>
-  </si>
-  <si>
     <t>Burnt</t>
   </si>
   <si>
@@ -1096,9 +1081,6 @@
     <t>abandoned</t>
   </si>
   <si>
-    <t>baled</t>
-  </si>
-  <si>
     <t>burnt</t>
   </si>
   <si>
@@ -1174,18 +1156,12 @@
     <t>sweetpotatoes</t>
   </si>
   <si>
-    <t>(selected(${site-lclu}, 'forest') or selected(${site-lclu}, 'woodland')) or selected(${site-lclu}, 'shrubland')</t>
-  </si>
-  <si>
     <t>shrubcrop</t>
   </si>
   <si>
     <t>treecrop</t>
   </si>
   <si>
-    <t>select_multiple veg_names</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ayinda </t>
   </si>
   <si>
@@ -1357,27 +1333,6 @@
     <t>spicetree</t>
   </si>
   <si>
-    <t>veg-othertype</t>
-  </si>
-  <si>
-    <t>veg-name</t>
-  </si>
-  <si>
-    <t>Other vegetation type</t>
-  </si>
-  <si>
-    <t>selected(${veg-name} , 'other')</t>
-  </si>
-  <si>
-    <t>What are the woody vegetation types across the site?</t>
-  </si>
-  <si>
-    <t>What is the other type(s) of woody vegetation?</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
     <t>commodity</t>
   </si>
   <si>
@@ -1717,9 +1672,6 @@
     <t>This allows you to select a distance and bearing to the site.</t>
   </si>
   <si>
-    <t>Woody vegetation type</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -1859,6 +1811,33 @@
   </si>
   <si>
     <t>Optional tailings pile photo</t>
+  </si>
+  <si>
+    <t>select_one climate</t>
+  </si>
+  <si>
+    <t>capture-accuracy=10</t>
+  </si>
+  <si>
+    <t>coniferous</t>
+  </si>
+  <si>
+    <t>Deciduous Broad-leaved Forest</t>
+  </si>
+  <si>
+    <t>Evergreen Broad-leaved Forest</t>
+  </si>
+  <si>
+    <t>evergreen</t>
+  </si>
+  <si>
+    <t>deciduous</t>
+  </si>
+  <si>
+    <t>Woodland (canopy cover &lt;5%)</t>
+  </si>
+  <si>
+    <t>Coniferous or Needleleaf Forest</t>
   </si>
 </sst>
 </file>
@@ -2176,13 +2155,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2171,7 @@
     <col min="3" max="3" width="47.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="53.6328125" style="5" customWidth="1"/>
     <col min="5" max="5" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="78" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
@@ -2269,7 +2248,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -2280,7 +2259,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -2288,10 +2267,10 @@
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -2299,10 +2278,10 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2320,10 +2299,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -2332,13 +2311,13 @@
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
@@ -2349,13 +2328,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -2363,180 +2342,183 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>84</v>
+      <c r="B12" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="G12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>514</v>
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="E13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>516</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="H15" s="3" t="s">
-        <v>100</v>
+        <v>490</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>392</v>
+        <v>122</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>517</v>
+        <v>379</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>393</v>
+      <c r="F17" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
       </c>
+      <c r="M17" s="5" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>501</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>390</v>
+        <v>489</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,26 +2530,26 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2575,16 +2557,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -2596,19 +2578,19 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -2621,1001 +2603,953 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>380</v>
+        <v>54</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="3" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>501</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>484</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>154</v>
+      <c r="B32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="3"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>527</v>
+        <v>414</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="M35" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>154</v>
+      <c r="F37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="M38" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>125</v>
+      <c r="A40" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>417</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="F40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>467</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>422</v>
+        <v>120</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="F43" s="5" t="s">
-        <v>424</v>
+        <v>121</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="M43" s="5" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>125</v>
+      <c r="A45" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>468</v>
+        <v>516</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="F47" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="F48" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="M46" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="F50" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>237</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>99</v>
+      <c r="A52" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>478</v>
+      <c r="F54" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>534</v>
+        <v>146</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>466</v>
+        <v>163</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>466</v>
+        <v>142</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="M62" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>154</v>
+        <v>188</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>426</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="F65" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="M65" s="6" t="s">
-        <v>389</v>
+        <v>242</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>125</v>
+      <c r="A66" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>192</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D66" s="7"/>
       <c r="F66" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>490</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>537</v>
+        <v>209</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>490</v>
+        <v>213</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>143</v>
+      <c r="A68" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="F68" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="F69" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
+      <c r="D68" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>430</v>
+        <v>122</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>154</v>
+        <v>412</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>25</v>
+      <c r="A71" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G71" s="7"/>
+      <c r="M71" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
     <row r="73" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D73" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6">
-        <v>0</v>
+      <c r="C73" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>219</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="F74" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="M74" s="6" t="s">
-        <v>389</v>
+        <v>236</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>125</v>
+      <c r="A75" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D75" s="7"/>
       <c r="F75" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>492</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>539</v>
+        <v>442</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>492</v>
+        <v>214</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>143</v>
+      <c r="A77" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="F77" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="F78" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>250</v>
+      <c r="B79" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3631,13 +3565,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z150"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42:XFD42"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3712,10 +3646,10 @@
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>28</v>
@@ -3746,13 +3680,13 @@
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
@@ -3781,7 +3715,7 @@
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3813,10 +3747,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
@@ -3847,10 +3781,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
@@ -3881,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
@@ -3913,7 +3847,7 @@
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3943,7 +3877,7 @@
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3972,13 +3906,13 @@
     </row>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
@@ -4006,13 +3940,13 @@
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
@@ -4040,13 +3974,13 @@
     </row>
     <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -4074,13 +4008,13 @@
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
@@ -4109,7 +4043,7 @@
     <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4138,10 +4072,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>35</v>
@@ -4150,34 +4084,34 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>36</v>
@@ -4187,7 +4121,7 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
@@ -4197,7 +4131,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>37</v>
@@ -4209,7 +4143,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>38</v>
@@ -4221,7 +4155,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>39</v>
@@ -4233,10 +4167,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -4245,10 +4179,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -4257,7 +4191,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>36</v>
@@ -4267,197 +4201,197 @@
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>533</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>73</v>
+        <v>530</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>81</v>
+        <v>536</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="6"/>
+      <c r="A41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,1083 +4399,1096 @@
         <v>32</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="D51" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>455</v>
+        <v>197</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>456</v>
+        <v>198</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>36</v>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>230</v>
+        <v>80</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>231</v>
+      <c r="C65" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>36</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>259</v>
+        <v>80</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>293</v>
+        <v>468</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>261</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>529</v>
+        <v>284</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="B76" s="9" t="s">
-        <v>102</v>
+        <v>283</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="B77" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>497</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>294</v>
+        <v>482</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>271</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>347</v>
+        <v>482</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>319</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="C145" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5560,8 +5507,8 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5609,16 +5556,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C2">
-        <v>2022111401</v>
+        <v>2022112201</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
